--- a/data/표준단가 산출.xlsx
+++ b/data/표준단가 산출.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCode\TA Demo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCode\ENC Demo\V3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59B5CB3-2FB9-4E61-B9F6-7BE15D6C4D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51801FF-0FEA-4914-B5E2-EF52B58BD9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{053FD081-8206-47B4-AEF0-DAF168B965AF}"/>
   </bookViews>
@@ -214,55 +214,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단가(외주1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대비(외주1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단가(외주2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대비(외주2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단가(외주3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대비(외주3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단가(외주4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대비(외주4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단가(외주5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대비(외주5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>단가(표준)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대비(표준)</t>
+    <t>단가(전분기)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단가(전분기)</t>
+    <t>대비(표준,%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[단가(외주1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대비(외주1)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[단가(외주2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대비(외주2)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[단가(외주3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대비(외주3)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[단가(외주4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대비(외주4)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[단가(외주5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대비(외주5)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,9 +270,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -324,11 +325,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA98A54-CAFE-4096-8E64-FC6907F23F9D}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -679,15 +683,15 @@
     <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" customWidth="1"/>
     <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.625" customWidth="1"/>
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.125" customWidth="1"/>
     <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" customWidth="1"/>
     <col min="20" max="20" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -716,43 +720,43 @@
         <v>54</v>
       </c>
       <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>68</v>
-      </c>
-      <c r="L1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -780,7 +784,7 @@
       <c r="I2" s="1">
         <v>128440.2</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>100.031308411214</v>
       </c>
       <c r="K2" s="1">
@@ -834,7 +838,7 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
       <c r="K3" s="1">
@@ -886,7 +890,7 @@
       <c r="I4" s="1">
         <v>70492.707599999994</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>89.685378625954101</v>
       </c>
       <c r="K4" s="1">
@@ -942,7 +946,7 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="1">
@@ -994,7 +998,7 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="1"/>
@@ -1044,7 +1048,7 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="1"/>
@@ -1094,7 +1098,7 @@
       <c r="I8" s="1">
         <v>10850.76345</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>99.548288532110007</v>
       </c>
       <c r="K8" s="1">
@@ -1150,7 +1154,7 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" s="1"/>
@@ -1200,7 +1204,7 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="1"/>
@@ -1250,7 +1254,7 @@
       <c r="I11" s="1">
         <v>21701.526900000001</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>91.567624050632901</v>
       </c>
       <c r="K11" s="1">
@@ -1306,7 +1310,7 @@
       <c r="I12" s="1">
         <v>52832.363799999999</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>102.7867</v>
       </c>
       <c r="K12" s="1">
@@ -1357,7 +1361,7 @@
       <c r="I13" s="1">
         <v>173364.80866049899</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>109.447480214962</v>
       </c>
       <c r="K13" s="1">
@@ -1410,7 +1414,7 @@
       <c r="I14" s="1">
         <v>1371112.952631</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>0</v>
       </c>
       <c r="K14" s="1"/>
@@ -1459,7 +1463,7 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>0</v>
       </c>
       <c r="K15" s="1">
@@ -1511,7 +1515,7 @@
       <c r="I16" s="1">
         <v>50426.513930000001</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16" s="1"/>
@@ -1560,7 +1564,7 @@
       <c r="I17" s="1">
         <v>219963.538</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>122.816045784477</v>
       </c>
       <c r="K17" s="1">
@@ -1611,7 +1615,7 @@
       <c r="I18" s="1">
         <v>73673.736950000006</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <v>172.13489941588699</v>
       </c>
       <c r="K18" s="1">
@@ -1664,7 +1668,7 @@
       <c r="I19" s="1">
         <v>87668.570948499997</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="2">
         <v>129.59138351588999</v>
       </c>
       <c r="K19" s="1">
@@ -1717,7 +1721,7 @@
       <c r="I20" s="1">
         <v>43403.053800000002</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <v>119.567641322314</v>
       </c>
       <c r="K20" s="1">
@@ -1770,7 +1774,7 @@
       <c r="I21" s="1">
         <v>16301.841850000001</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <v>95.332408479532106</v>
       </c>
       <c r="K21" s="1">
@@ -1823,7 +1827,7 @@
       <c r="I22" s="1">
         <v>0</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <v>0</v>
       </c>
       <c r="K22" s="1"/>
@@ -1873,7 +1877,7 @@
       <c r="I23" s="1">
         <v>84285.093999999997</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <v>99.982317912218207</v>
       </c>
       <c r="K23" s="1">
@@ -1927,7 +1931,7 @@
       <c r="I24" s="1">
         <v>0</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <v>0</v>
       </c>
       <c r="K24" s="1">
@@ -1979,7 +1983,7 @@
       <c r="I25" s="1">
         <v>96330.15</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="2">
         <v>102.588019169329</v>
       </c>
       <c r="K25" s="1">
@@ -2033,7 +2037,7 @@
       <c r="I26" s="1">
         <v>0</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="2">
         <v>0</v>
       </c>
       <c r="K26" s="1">
@@ -2085,7 +2089,7 @@
       <c r="I27" s="1">
         <v>0</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="2">
         <v>0</v>
       </c>
       <c r="K27" s="1"/>
@@ -2132,7 +2136,7 @@
       <c r="I28" s="1">
         <v>6763.3279999999904</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="2">
         <v>62.623407407407399</v>
       </c>
       <c r="K28" s="1">
@@ -2185,7 +2189,7 @@
       <c r="I29" s="1">
         <v>43992.707600000002</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="2">
         <v>85.588925291828801</v>
       </c>
       <c r="K29" s="1">
@@ -2236,7 +2240,7 @@
       <c r="I30" s="1">
         <v>13631.130961499999</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="2">
         <v>83.116652204268206</v>
       </c>
       <c r="K30" s="1">
@@ -2292,7 +2296,7 @@
       <c r="I31" s="1">
         <v>0</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="2">
         <v>0</v>
       </c>
       <c r="K31" s="1"/>
@@ -2342,7 +2346,7 @@
       <c r="I32" s="1">
         <v>0</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="2">
         <v>0</v>
       </c>
       <c r="K32" s="1"/>
@@ -2392,7 +2396,7 @@
       <c r="I33" s="1">
         <v>119358.39795</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="2">
         <v>97.674630073649695</v>
       </c>
       <c r="K33" s="1">
@@ -2448,7 +2452,7 @@
       <c r="I34" s="1">
         <v>119505.81140000001</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="2">
         <v>83.308338375740604</v>
       </c>
       <c r="K34" s="1">
@@ -2504,7 +2508,7 @@
       <c r="I35" s="1">
         <v>281408.910416</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="2">
         <v>102.591655273787</v>
       </c>
       <c r="K35" s="1">
@@ -2558,7 +2562,7 @@
       <c r="I36" s="1">
         <v>481650.75</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="2">
         <v>0</v>
       </c>
       <c r="K36" s="1"/>
@@ -2610,7 +2614,7 @@
       <c r="I37" s="1">
         <v>0</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="2">
         <v>0</v>
       </c>
       <c r="K37" s="1"/>
@@ -2657,7 +2661,7 @@
       <c r="I38" s="1">
         <v>23335658.614012498</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="2">
         <v>0</v>
       </c>
       <c r="K38" s="1"/>

--- a/data/표준단가 산출.xlsx
+++ b/data/표준단가 산출.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCode\ENC Demo\V3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51801FF-0FEA-4914-B5E2-EF52B58BD9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A5C5F2-318C-4DA3-9C79-9F7C536D5553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{053FD081-8206-47B4-AEF0-DAF168B965AF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="64">
   <si>
     <t>건축공사</t>
   </si>
@@ -226,43 +226,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[단가(외주1)</t>
+    <t>단가(외주1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대비(외주1)]</t>
+    <t>단가(외주2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[단가(외주2)</t>
+    <t>단가(외주3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대비(외주2)]</t>
+    <t>단가(외주4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[단가(외주3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대비(외주3)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[단가(외주4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대비(외주4)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[단가(외주5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대비(외주5)]</t>
+    <t>단가(외주5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,31 +650,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA98A54-CAFE-4096-8E64-FC6907F23F9D}">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.125" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5" customWidth="1"/>
-    <col min="20" max="20" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -743,23 +717,8 @@
       <c r="P1" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" t="s">
-        <v>66</v>
-      </c>
-      <c r="T1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -791,29 +750,14 @@
         <v>128400</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1">
         <v>128440.2</v>
       </c>
-      <c r="U2" s="1">
-        <v>100.031308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -845,27 +789,12 @@
         <v>58600</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
+      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -900,28 +829,13 @@
         <v>53000</v>
       </c>
       <c r="M4" s="1">
-        <v>67.430025000000001</v>
-      </c>
-      <c r="N4" s="1">
         <v>87985.415200000003</v>
       </c>
-      <c r="O4" s="1">
-        <v>111.940731</v>
-      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -953,27 +867,12 @@
         <v>152100</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
+      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1003,27 +902,12 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1053,27 +937,12 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
+      <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1106,30 +975,15 @@
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
         <v>10998.1769</v>
       </c>
-      <c r="O8" s="1">
-        <v>100.900705</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1">
         <v>10703.35</v>
       </c>
-      <c r="U8" s="1">
-        <v>98.195870999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1159,27 +1013,12 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1209,27 +1048,12 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
+      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1262,30 +1086,15 @@
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
         <v>21996.353800000001</v>
       </c>
-      <c r="O11" s="1">
-        <v>92.811618999999993</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1">
         <v>21406.7</v>
       </c>
-      <c r="U11" s="1">
-        <v>90.323627999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1318,28 +1127,13 @@
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
         <v>52832.363799999999</v>
       </c>
-      <c r="O12" s="1">
-        <v>102.7867</v>
-      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1369,30 +1163,15 @@
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
         <v>180827.69232100001</v>
       </c>
-      <c r="O13" s="1">
-        <v>114.158896</v>
-      </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1">
         <v>165901.92499999999</v>
       </c>
-      <c r="U13" s="1">
-        <v>104.736063</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1419,29 +1198,14 @@
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
+      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
+      <c r="O14" s="1"/>
+      <c r="P14" s="1">
         <v>1371112.952631</v>
       </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1470,27 +1234,12 @@
         <v>292300</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
+      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1520,29 +1269,14 @@
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
+      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
+      <c r="O16" s="1"/>
+      <c r="P16" s="1">
         <v>50426.513930000001</v>
       </c>
-      <c r="U16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1572,28 +1306,13 @@
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
         <v>219963.538</v>
       </c>
-      <c r="O17" s="1">
-        <v>122.816045</v>
-      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1623,30 +1342,15 @@
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
         <v>104534.0739</v>
       </c>
-      <c r="O18" s="1">
-        <v>244.23849000000001</v>
-      </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1">
-        <v>0</v>
-      </c>
-      <c r="T18" s="1">
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1">
         <v>42813.4</v>
       </c>
-      <c r="U18" s="1">
-        <v>100.031308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1676,30 +1380,15 @@
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
         <v>91428.769650000002</v>
       </c>
-      <c r="O19" s="1">
-        <v>135.14969600000001</v>
-      </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1">
         <v>83908.372247000007</v>
       </c>
-      <c r="U19" s="1">
-        <v>124.03307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1729,30 +1418,15 @@
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
         <v>43992.707600000002</v>
       </c>
-      <c r="O20" s="1">
-        <v>121.192031</v>
-      </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1">
         <v>42813.4</v>
       </c>
-      <c r="U20" s="1">
-        <v>117.94325000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1782,30 +1456,15 @@
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
         <v>16548.6587</v>
       </c>
-      <c r="O21" s="1">
-        <v>96.775780999999995</v>
-      </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
-      <c r="T21" s="1">
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1">
         <v>16055.025</v>
       </c>
-      <c r="U21" s="1">
-        <v>93.889035000000007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1832,27 +1491,12 @@
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
+      <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1">
-        <v>0</v>
-      </c>
+      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1885,28 +1529,13 @@
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
         <v>84285.093999999997</v>
       </c>
-      <c r="O23" s="1">
-        <v>99.982316999999995</v>
-      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1938,27 +1567,12 @@
         <v>98500</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
+      <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
+      <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1990,29 +1604,14 @@
         <v>93900</v>
       </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
+      <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1">
-        <v>0</v>
-      </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1">
         <v>96330.15</v>
       </c>
-      <c r="U25" s="1">
-        <v>102.588019</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2044,27 +1643,12 @@
         <v>137000</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
+      <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1">
-        <v>0</v>
-      </c>
+      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="1">
-        <v>0</v>
-      </c>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2094,27 +1678,12 @@
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
+      <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1">
-        <v>0</v>
-      </c>
+      <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1">
-        <v>0</v>
-      </c>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2143,31 +1712,16 @@
         <v>10800</v>
       </c>
       <c r="L28" s="1"/>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1">
+        <v>6764.4264999999996</v>
+      </c>
       <c r="O28" s="1">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1">
-        <v>6764.4264999999996</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>62.633578</v>
-      </c>
-      <c r="R28" s="1">
         <v>6762.2295000000004</v>
       </c>
-      <c r="S28" s="1">
-        <v>62.613236000000001</v>
-      </c>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2197,28 +1751,13 @@
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1">
         <v>43992.707600000002</v>
       </c>
-      <c r="O29" s="1">
-        <v>85.588925000000003</v>
-      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="1">
-        <v>0</v>
-      </c>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1">
-        <v>0</v>
-      </c>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2248,30 +1787,15 @@
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1">
         <v>13163.266924</v>
       </c>
-      <c r="O30" s="1">
-        <v>80.263822000000005</v>
-      </c>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1">
-        <v>0</v>
-      </c>
-      <c r="T30" s="1">
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1">
         <v>14098.994999</v>
       </c>
-      <c r="U30" s="1">
-        <v>85.969481000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2301,27 +1825,12 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1">
-        <v>0</v>
-      </c>
+      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1">
-        <v>0</v>
-      </c>
+      <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="1">
-        <v>0</v>
-      </c>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1">
-        <v>0</v>
-      </c>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2351,27 +1860,12 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
+      <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1">
-        <v>0</v>
-      </c>
+      <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="1">
-        <v>0</v>
-      </c>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1">
-        <v>0</v>
-      </c>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2404,30 +1898,15 @@
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1">
         <v>120979.94590000001</v>
       </c>
-      <c r="O33" s="1">
-        <v>99.001592000000002</v>
-      </c>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1">
-        <v>0</v>
-      </c>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1">
-        <v>0</v>
-      </c>
-      <c r="T33" s="1">
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1">
         <v>117736.85</v>
       </c>
-      <c r="U33" s="1">
-        <v>96.347667000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2460,30 +1939,15 @@
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1">
         <v>131978.12280000001</v>
       </c>
-      <c r="O34" s="1">
-        <v>92.002874000000006</v>
-      </c>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1">
-        <v>0</v>
-      </c>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1">
-        <v>0</v>
-      </c>
-      <c r="T34" s="1">
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1">
         <v>107033.5</v>
       </c>
-      <c r="U34" s="1">
-        <v>74.613802000000007</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2515,29 +1979,14 @@
         <v>274300</v>
       </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="1">
-        <v>0</v>
-      </c>
+      <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="1">
-        <v>0</v>
-      </c>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1">
-        <v>0</v>
-      </c>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1">
-        <v>0</v>
-      </c>
-      <c r="T35" s="1">
+      <c r="O35" s="1"/>
+      <c r="P35" s="1">
         <v>281408.910416</v>
       </c>
-      <c r="U35" s="1">
-        <v>102.591655</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2567,29 +2016,14 @@
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1">
-        <v>0</v>
-      </c>
+      <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="1">
-        <v>0</v>
-      </c>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1">
-        <v>0</v>
-      </c>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1">
-        <v>0</v>
-      </c>
-      <c r="T36" s="1">
+      <c r="O36" s="1"/>
+      <c r="P36" s="1">
         <v>481650.75</v>
       </c>
-      <c r="U36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2619,27 +2053,12 @@
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="1">
-        <v>0</v>
-      </c>
+      <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="1">
-        <v>0</v>
-      </c>
+      <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="1">
-        <v>0</v>
-      </c>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1">
-        <v>0</v>
-      </c>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2667,27 +2086,12 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
         <v>22733540.012400001</v>
       </c>
-      <c r="O38" s="1">
-        <v>0</v>
-      </c>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1">
-        <v>0</v>
-      </c>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1">
-        <v>0</v>
-      </c>
-      <c r="T38" s="1">
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1">
         <v>23937777.215624999</v>
-      </c>
-      <c r="U38" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/표준단가 산출.xlsx
+++ b/data/표준단가 산출.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCode\ENC Demo\V3\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCode\ENC Demo\V4\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A5C5F2-318C-4DA3-9C79-9F7C536D5553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA98EAE4-45C9-49CA-9D24-763F8B304A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{053FD081-8206-47B4-AEF0-DAF168B965AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{053FD081-8206-47B4-AEF0-DAF168B965AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="100">
   <si>
     <t>건축공사</t>
   </si>
@@ -65,36 +66,15 @@
     <t>핸드레일</t>
   </si>
   <si>
-    <t>점검용사다리</t>
-  </si>
-  <si>
-    <t>H: 5000 미만</t>
-  </si>
-  <si>
     <t>EA</t>
   </si>
   <si>
-    <t>바닥재료분리대</t>
-  </si>
-  <si>
     <t>SST,W=50</t>
   </si>
   <si>
-    <t>SST,W=40</t>
-  </si>
-  <si>
-    <t>안전유리난간</t>
-  </si>
-  <si>
-    <t>청소용고리</t>
-  </si>
-  <si>
     <t>SST</t>
   </si>
   <si>
-    <t>ST'L COVER</t>
-  </si>
-  <si>
     <t>분체도장,점검구포함 (무늬코트별도)</t>
   </si>
   <si>
@@ -107,33 +87,18 @@
     <t>AL.캐노피</t>
   </si>
   <si>
-    <t>AL.루버설치</t>
-  </si>
-  <si>
     <t>지정불소수지도장 포함</t>
   </si>
   <si>
-    <t>우편함벽체틀</t>
-  </si>
-  <si>
     <t>지붕 및 홈통공사</t>
   </si>
   <si>
-    <t>선홈통설치</t>
-  </si>
-  <si>
     <t>루프 드레인</t>
   </si>
   <si>
     <t>상자홈통</t>
   </si>
   <si>
-    <t>빗물받이블럭</t>
-  </si>
-  <si>
-    <t>무동력흡출기</t>
-  </si>
-  <si>
     <t>배기구 좌대</t>
   </si>
   <si>
@@ -143,45 +108,21 @@
     <t>지하주차장</t>
   </si>
   <si>
-    <t>재료분리대</t>
-  </si>
-  <si>
     <t>COVER 트렌치</t>
   </si>
   <si>
     <t>OPEN 트렌치</t>
   </si>
   <si>
-    <t>PC트렌치</t>
-  </si>
-  <si>
-    <t>오픈형</t>
-  </si>
-  <si>
-    <t>그레이팅형</t>
-  </si>
-  <si>
-    <t>무소음트렌치</t>
-  </si>
-  <si>
     <t>W=300</t>
   </si>
   <si>
-    <t>집수정커버</t>
-  </si>
-  <si>
     <t>Φ: 500이상 1000미만</t>
   </si>
   <si>
     <t>Φ: 1000이상 1500미만</t>
   </si>
   <si>
-    <t>Φ: 1500이상 2000미만</t>
-  </si>
-  <si>
-    <t>주차장지붕(폴리카보네이트)</t>
-  </si>
-  <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +184,213 @@
   </si>
   <si>
     <t>단가(외주5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적산항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설 내역</t>
+  </si>
+  <si>
+    <t>적산 항목</t>
+  </si>
+  <si>
+    <t>난간재료(철재, 스테인리스, 알루미늄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드레일 재료(스테인리스, 목재 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점검용 사다리</t>
+  </si>
+  <si>
+    <t>사다리 제작비(철재, 알루미늄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥재료 분리대</t>
+  </si>
+  <si>
+    <t>분리대 재료(스테인리스, 알루미늄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 부품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전유리 난간</t>
+  </si>
+  <si>
+    <t>강화유리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임(알루미늄, 스테인리스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소용 고리</t>
+  </si>
+  <si>
+    <t>고리 제작비(스테인리스, 철재)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST’L COVER</t>
+  </si>
+  <si>
+    <t>스틸 커버 제작비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알루미늄 시트 재료비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가공비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알루미늄 프레임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지지대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL.루버 설치</t>
+  </si>
+  <si>
+    <t>알루미늄 루버 재료비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편함 벽체틀</t>
+  </si>
+  <si>
+    <t>우편함 프레임(스테인리스, 알루미늄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선홈통 설치</t>
+  </si>
+  <si>
+    <t>홈통 재료(스테인리스, PVC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드레인 재료(스테인리스, PVC), 설치비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈통 재료(스테인리스, 알루미늄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빗물받이 블럭</t>
+  </si>
+  <si>
+    <t>블럭 재료(콘크리트, 플라스틱)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무동력 흡출기</t>
+  </si>
+  <si>
+    <t>흡출기 재료(스테인리스, 알루미늄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌대 재료(콘크리트, 철재)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 분리대</t>
+  </si>
+  <si>
+    <t>트렌치 커버 재료(스테인리스, 콘크리트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트렌치 재료(콘크리트, 철재),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC 트렌치</t>
+  </si>
+  <si>
+    <t>프리캐스트 트렌치 재료(콘크리트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무소음 트렌치</t>
+  </si>
+  <si>
+    <t>방음 트렌치 재료(고무, 콘크리트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집수정 커버</t>
+  </si>
+  <si>
+    <t>집수정 커버 재료(스테인리스, 철재)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차장 지붕(폴리카보네이트)</t>
+  </si>
+  <si>
+    <t>폴리카보네이트 패널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지지 프레임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥재료 분리대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소용 고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빗물받이 블럭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무동력 흡출기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 분리대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무소음 트렌치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집수정 커버</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,75 +798,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA98A54-CAFE-4096-8E64-FC6907F23F9D}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="9" max="9" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="O1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="P1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -734,30 +887,34 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="str">
+        <f>VLOOKUP(F2,Sheet4!$A:$B,2,FALSE)</f>
+        <v>난간재료(철재, 스테인리스, 알루미늄)</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>128440.2</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>100.031308411214</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>128400</v>
       </c>
-      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1">
         <v>128440.2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -774,27 +931,30 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
         <v>58600</v>
       </c>
-      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -811,31 +971,34 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>70492.707599999994</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>89.685378625954101</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>78600</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>53000</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>87985.415200000003</v>
       </c>
-      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -851,30 +1014,34 @@
       <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="str">
+        <f>VLOOKUP(F5,Sheet4!$A:$B,2,FALSE)</f>
+        <v>핸드레일 재료(스테인리스, 목재 등)</v>
+      </c>
+      <c r="H5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
         <v>152100</v>
       </c>
-      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -886,30 +1053,40 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
+        <v>93</v>
+      </c>
+      <c r="G6" t="str">
+        <f>VLOOKUP(F6,Sheet4!$A:$B,2,FALSE)</f>
+        <v>분리대 재료(스테인리스, 알루미늄)</v>
       </c>
       <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="J6" s="1">
+        <v>10850.76345</v>
+      </c>
+      <c r="K6" s="2">
+        <v>99.548288532110007</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10900</v>
+      </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1">
+        <v>10998.1769</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="1">
+        <v>10703.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -921,30 +1098,40 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
+        <v>94</v>
+      </c>
+      <c r="G7" t="str">
+        <f>VLOOKUP(F7,Sheet4!$A:$B,2,FALSE)</f>
+        <v>고리 제작비(스테인리스, 철재)</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1">
+        <v>21701.526900000001</v>
+      </c>
+      <c r="K7" s="2">
+        <v>91.567624050632901</v>
+      </c>
+      <c r="L7" s="1">
+        <v>23700</v>
+      </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>21996.353800000001</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="1">
+        <v>21406.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -956,36 +1143,38 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP(F8,Sheet4!$A:$B,2,FALSE)</f>
+        <v>스틸 커버 제작비</v>
+      </c>
+      <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10850.76345</v>
-      </c>
-      <c r="J8" s="2">
-        <v>99.548288532110007</v>
-      </c>
-      <c r="K8" s="1">
-        <v>10900</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1">
-        <v>10998.1769</v>
-      </c>
-      <c r="N8" s="1"/>
+      <c r="J8" s="1">
+        <v>52832.363799999999</v>
+      </c>
+      <c r="K8" s="2">
+        <v>102.7867</v>
+      </c>
+      <c r="L8" s="1">
+        <v>51400</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <v>52832.363799999999</v>
+      </c>
       <c r="O8" s="1"/>
-      <c r="P8" s="1">
-        <v>10703.35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -997,30 +1186,37 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="G9" t="str">
+        <f>VLOOKUP(F9,Sheet4!$A:$B,2,FALSE)</f>
+        <v>알루미늄 시트 재료비</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1">
+        <v>173364.80866049899</v>
+      </c>
+      <c r="K9" s="2">
+        <v>109.447480214962</v>
+      </c>
+      <c r="L9" s="1">
+        <v>158400</v>
+      </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>180827.69232100001</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="1">
+        <v>165901.92499999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -1035,27 +1231,29 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1371112.952631</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="1">
+        <v>1371112.952631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -1067,36 +1265,32 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="1">
-        <v>21701.526900000001</v>
-      </c>
-      <c r="J11" s="2">
-        <v>91.567624050632901</v>
-      </c>
-      <c r="K11" s="1">
-        <v>23700</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1">
-        <v>21996.353800000001</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>292300</v>
+      </c>
+      <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1">
-        <v>21406.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -1108,34 +1302,36 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(F12,Sheet4!$A:$B,2,FALSE)</f>
+        <v>알루미늄 루버 재료비</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="1">
-        <v>52832.363799999999</v>
-      </c>
-      <c r="J12" s="2">
-        <v>102.7867</v>
-      </c>
-      <c r="K12" s="1">
-        <v>51400</v>
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>50426.513930000001</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1">
-        <v>52832.363799999999</v>
-      </c>
+      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" s="1">
+        <v>50426.513930000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -1147,33 +1343,35 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="1">
-        <v>173364.80866049899</v>
-      </c>
-      <c r="J13" s="2">
-        <v>109.447480214962</v>
-      </c>
-      <c r="K13" s="1">
-        <v>158400</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1">
-        <v>180827.69232100001</v>
-      </c>
-      <c r="N13" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="G13" t="str">
+        <f>VLOOKUP(F13,Sheet4!$A:$B,2,FALSE)</f>
+        <v>우편함 프레임(스테인리스, 알루미늄)</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="1">
+        <v>219963.538</v>
+      </c>
+      <c r="K13" s="2">
+        <v>122.816045784477</v>
+      </c>
+      <c r="L13" s="1">
+        <v>179100</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1">
+        <v>219963.538</v>
+      </c>
       <c r="O13" s="1"/>
-      <c r="P13" s="1">
-        <v>165901.92499999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -1182,32 +1380,40 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1371112.952631</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="G14" t="str">
+        <f>VLOOKUP(F14,Sheet4!$A:$B,2,FALSE)</f>
+        <v>홈통 재료(스테인리스, PVC)</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1">
+        <v>73673.736950000006</v>
+      </c>
+      <c r="K14" s="2">
+        <v>172.13489941588699</v>
+      </c>
+      <c r="L14" s="1">
+        <v>42800</v>
+      </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>104534.0739</v>
+      </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="1">
-        <v>1371112.952631</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1">
+        <v>42813.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -1216,32 +1422,40 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>292300</v>
-      </c>
-      <c r="L15" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="G15" t="str">
+        <f>VLOOKUP(F15,Sheet4!$A:$B,2,FALSE)</f>
+        <v>드레인 재료(스테인리스, PVC), 설치비</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="1">
+        <v>87668.570948499997</v>
+      </c>
+      <c r="K15" s="2">
+        <v>129.59138351588999</v>
+      </c>
+      <c r="L15" s="1">
+        <v>67650</v>
+      </c>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>91428.769650000002</v>
+      </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" s="1">
+        <v>83908.372247000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -1250,35 +1464,40 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="1">
-        <v>50426.513930000001</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="G16" t="str">
+        <f>VLOOKUP(F16,Sheet4!$A:$B,2,FALSE)</f>
+        <v>홈통 재료(스테인리스, 알루미늄)</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1">
+        <v>43403.053800000002</v>
+      </c>
+      <c r="K16" s="2">
+        <v>119.567641322314</v>
+      </c>
+      <c r="L16" s="1">
+        <v>36300</v>
+      </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1">
+        <v>43992.707600000002</v>
+      </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="1">
-        <v>50426.513930000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1">
+        <v>42813.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -1287,34 +1506,40 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="1">
-        <v>219963.538</v>
-      </c>
-      <c r="J17" s="2">
-        <v>122.816045784477</v>
-      </c>
-      <c r="K17" s="1">
-        <v>179100</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1">
-        <v>219963.538</v>
-      </c>
-      <c r="N17" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="G17" t="str">
+        <f>VLOOKUP(F17,Sheet4!$A:$B,2,FALSE)</f>
+        <v>블럭 재료(콘크리트, 플라스틱)</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="1">
+        <v>16301.841850000001</v>
+      </c>
+      <c r="K17" s="2">
+        <v>95.332408479532106</v>
+      </c>
+      <c r="L17" s="1">
+        <v>17100</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1">
+        <v>16548.6587</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="1">
+        <v>16055.025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -1323,36 +1548,34 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="1">
-        <v>73673.736950000006</v>
-      </c>
-      <c r="J18" s="2">
-        <v>172.13489941588699</v>
-      </c>
-      <c r="K18" s="1">
-        <v>42800</v>
+        <v>96</v>
+      </c>
+      <c r="G18" t="str">
+        <f>VLOOKUP(F18,Sheet4!$A:$B,2,FALSE)</f>
+        <v>흡출기 재료(스테인리스, 알루미늄)</v>
+      </c>
+      <c r="I18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="1">
-        <v>104534.0739</v>
-      </c>
+      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1">
-        <v>42813.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -1361,736 +1584,454 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="G19" t="str">
+        <f>VLOOKUP(F19,Sheet4!$A:$B,2,FALSE)</f>
+        <v>좌대 재료(콘크리트, 철재)</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="1">
-        <v>87668.570948499997</v>
-      </c>
-      <c r="J19" s="2">
-        <v>129.59138351588999</v>
-      </c>
-      <c r="K19" s="1">
-        <v>67650</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1">
-        <v>91428.769650000002</v>
-      </c>
-      <c r="N19" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="1">
+        <v>84285.093999999997</v>
+      </c>
+      <c r="K19" s="2">
+        <v>99.982317912218207</v>
+      </c>
+      <c r="L19" s="1">
+        <v>84300</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1">
+        <v>84285.093999999997</v>
+      </c>
       <c r="O19" s="1"/>
-      <c r="P19" s="1">
-        <v>83908.372247000007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="G20" t="str">
+        <f>VLOOKUP(F20,Sheet4!$A:$B,2,FALSE)</f>
+        <v>난간재료(철재, 스테인리스, 알루미늄)</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="1">
-        <v>43403.053800000002</v>
-      </c>
-      <c r="J20" s="2">
-        <v>119.567641322314</v>
-      </c>
-      <c r="K20" s="1">
-        <v>36300</v>
-      </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1">
-        <v>43992.707600000002</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>98500</v>
+      </c>
+      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1">
-        <v>42813.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="1">
-        <v>16301.841850000001</v>
-      </c>
-      <c r="J21" s="2">
-        <v>95.332408479532106</v>
-      </c>
-      <c r="K21" s="1">
-        <v>17100</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1">
-        <v>16548.6587</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="1">
+        <v>96330.15</v>
+      </c>
+      <c r="K21" s="2">
+        <v>102.588019169329</v>
+      </c>
+      <c r="L21" s="1">
+        <v>93900</v>
+      </c>
+      <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1">
-        <v>16055.025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1">
+        <v>96330.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="G22" t="str">
+        <f>VLOOKUP(F22,Sheet4!$A:$B,2,FALSE)</f>
+        <v>핸드레일 재료(스테인리스, 목재 등)</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>137000</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="1">
-        <v>84285.093999999997</v>
-      </c>
-      <c r="J23" s="2">
-        <v>99.982317912218207</v>
-      </c>
-      <c r="K23" s="1">
-        <v>84300</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1">
-        <v>84285.093999999997</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G23" t="str">
+        <f>VLOOKUP(F23,Sheet4!$A:$B,2,FALSE)</f>
+        <v>분리대 재료(스테인리스, 알루미늄)</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1">
+        <v>6763.3279999999904</v>
+      </c>
+      <c r="K23" s="2">
+        <v>62.623407407407399</v>
+      </c>
+      <c r="L23" s="1">
+        <v>10800</v>
+      </c>
+      <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O23" s="1">
+        <v>6764.4264999999996</v>
+      </c>
+      <c r="P23" s="1">
+        <v>6762.2295000000004</v>
+      </c>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="str">
+        <f>VLOOKUP(F24,Sheet4!$A:$B,2,FALSE)</f>
+        <v>트렌치 커버 재료(스테인리스, 콘크리트)</v>
+      </c>
+      <c r="I24" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>98500</v>
-      </c>
-      <c r="L24" s="1"/>
+      <c r="J24" s="1">
+        <v>43992.707600000002</v>
+      </c>
+      <c r="K24" s="2">
+        <v>85.588925291828801</v>
+      </c>
+      <c r="L24" s="1">
+        <v>51400</v>
+      </c>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>43992.707600000002</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="str">
+        <f>VLOOKUP(F25,Sheet4!$A:$B,2,FALSE)</f>
+        <v>트렌치 재료(콘크리트, 철재),</v>
+      </c>
+      <c r="I25" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="1">
-        <v>96330.15</v>
-      </c>
-      <c r="J25" s="2">
-        <v>102.588019169329</v>
-      </c>
-      <c r="K25" s="1">
-        <v>93900</v>
-      </c>
-      <c r="L25" s="1"/>
+      <c r="J25" s="1">
+        <v>13631.130961499999</v>
+      </c>
+      <c r="K25" s="2">
+        <v>83.116652204268206</v>
+      </c>
+      <c r="L25" s="1">
+        <v>16400</v>
+      </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>13163.266924</v>
+      </c>
       <c r="O25" s="1"/>
-      <c r="P25" s="1">
-        <v>96330.15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1">
+        <v>14098.994999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" t="s">
-        <v>7</v>
+        <v>98</v>
+      </c>
+      <c r="G26" t="str">
+        <f>VLOOKUP(F26,Sheet4!$A:$B,2,FALSE)</f>
+        <v>방음 트렌치 재료(고무, 콘크리트)</v>
       </c>
       <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>137000</v>
-      </c>
-      <c r="L26" s="1"/>
+      <c r="J26" s="1">
+        <v>119358.39795</v>
+      </c>
+      <c r="K26" s="2">
+        <v>97.674630073649695</v>
+      </c>
+      <c r="L26" s="1">
+        <v>122200</v>
+      </c>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1">
+        <v>120979.94590000001</v>
+      </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q26" s="1">
+        <v>117736.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
       </c>
       <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s">
         <v>9</v>
       </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="J27" s="1">
+        <v>119505.81140000001</v>
+      </c>
+      <c r="K27" s="2">
+        <v>83.308338375740604</v>
+      </c>
+      <c r="L27" s="1">
+        <v>143450</v>
+      </c>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1">
+        <v>131978.12280000001</v>
+      </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q27" s="1">
+        <v>107033.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>99</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
       </c>
       <c r="H28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="1">
-        <v>6763.3279999999904</v>
-      </c>
-      <c r="J28" s="2">
-        <v>62.623407407407399</v>
-      </c>
-      <c r="K28" s="1">
-        <v>10800</v>
-      </c>
-      <c r="L28" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="1">
+        <v>281408.910416</v>
+      </c>
+      <c r="K28" s="2">
+        <v>102.591655273787</v>
+      </c>
+      <c r="L28" s="1">
+        <v>274300</v>
+      </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="1">
-        <v>6764.4264999999996</v>
-      </c>
-      <c r="O28" s="1">
-        <v>6762.2295000000004</v>
-      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q28" s="1">
+        <v>281408.910416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="1">
-        <v>43992.707600000002</v>
-      </c>
-      <c r="J29" s="2">
-        <v>85.588925291828801</v>
-      </c>
-      <c r="K29" s="1">
-        <v>51400</v>
+        <v>90</v>
+      </c>
+      <c r="G29" t="str">
+        <f>VLOOKUP(F29,Sheet4!$A:$B,2,FALSE)</f>
+        <v>폴리카보네이트 패널</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="1">
+        <v>23335658.614012498</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="1">
-        <v>43992.707600000002</v>
-      </c>
-      <c r="N29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1">
+        <v>22733540.012400001</v>
+      </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" s="1">
-        <v>13631.130961499999</v>
-      </c>
-      <c r="J30" s="2">
-        <v>83.116652204268206</v>
-      </c>
-      <c r="K30" s="1">
-        <v>16400</v>
-      </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1">
-        <v>13163.266924</v>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1">
-        <v>14098.994999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="1">
-        <v>119358.39795</v>
-      </c>
-      <c r="J33" s="2">
-        <v>97.674630073649695</v>
-      </c>
-      <c r="K33" s="1">
-        <v>122200</v>
-      </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1">
-        <v>120979.94590000001</v>
-      </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1">
-        <v>117736.85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="1">
-        <v>119505.81140000001</v>
-      </c>
-      <c r="J34" s="2">
-        <v>83.308338375740604</v>
-      </c>
-      <c r="K34" s="1">
-        <v>143450</v>
-      </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1">
-        <v>131978.12280000001</v>
-      </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1">
-        <v>107033.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="1">
-        <v>281408.910416</v>
-      </c>
-      <c r="J35" s="2">
-        <v>102.591655273787</v>
-      </c>
-      <c r="K35" s="1">
-        <v>274300</v>
-      </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1">
-        <v>281408.910416</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="1">
-        <v>481650.75</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1">
-        <v>481650.75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="1">
-        <v>23335658.614012498</v>
-      </c>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1">
-        <v>22733540.012400001</v>
-      </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1">
+      <c r="Q29" s="1">
         <v>23937777.215624999</v>
       </c>
     </row>
@@ -2099,4 +2040,488 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB096AE-2E8B-4057-9955-C95503265621}">
+  <dimension ref="A1:B58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>